--- a/5. WS/1. Bộ phận bảo hành/2. Báo cáo công việc/Năm 2021/Thang5/Tuan1.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/2. Báo cáo công việc/Năm 2021/Thang5/Tuan1.xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
-  <si>
-    <t>2.1 Số lượng xử lý theo mã thiết bị</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Thời gian</t>
   </si>
@@ -38,12 +35,6 @@
     <t>Số lượng</t>
   </si>
   <si>
-    <t>Hoàn thành</t>
-  </si>
-  <si>
-    <t>Chưa hoàn thành</t>
-  </si>
-  <si>
     <t>TG102LE</t>
   </si>
   <si>
@@ -74,77 +65,29 @@
     <t>Tổng</t>
   </si>
   <si>
-    <t>2.2 Số lượng xử lý và lỗi</t>
-  </si>
-  <si>
-    <t>STT</t>
-  </si>
-  <si>
-    <t>Lỗi</t>
-  </si>
-  <si>
-    <t>Lỗi MCU</t>
-  </si>
-  <si>
-    <t>Lỗi GSM</t>
-  </si>
-  <si>
-    <t>Lỗi GPS</t>
-  </si>
-  <si>
-    <t>Lỗi I/O</t>
-  </si>
-  <si>
-    <t>Lỗi nguồn</t>
-  </si>
-  <si>
-    <t>Lỗi khác</t>
-  </si>
-  <si>
-    <t>Mất cấu hình</t>
-  </si>
-  <si>
-    <t>SetFactory</t>
-  </si>
-  <si>
-    <t>Restore Bin</t>
-  </si>
-  <si>
-    <t>Nâng cấp FW</t>
-  </si>
-  <si>
-    <t>Không lỗi</t>
-  </si>
-  <si>
-    <t>Đổi mới</t>
-  </si>
-  <si>
-    <t>Không sửa</t>
-  </si>
-  <si>
     <t>I. Bộ phận: Bảo hành</t>
   </si>
   <si>
     <t>Phụ kiện và model khác</t>
   </si>
   <si>
-    <t>Tỷ lệ hoàn thành(%)</t>
-  </si>
-  <si>
-    <t>Tỷ lệ chưa hoàn thành(%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Từ ngày 03- 88/05/2021</t>
+    <t>Đã trả</t>
+  </si>
+  <si>
+    <t>Đã xong</t>
+  </si>
+  <si>
+    <t>Đang xử lý</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Từ ngày 03- 08/05/2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.00;[Red]#,##0.00"/>
-  </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,25 +115,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -206,7 +130,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -278,15 +202,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -312,22 +227,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -347,39 +251,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -391,7 +264,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -677,439 +550,286 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="10.7109375" customWidth="1"/>
     <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="4" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="8" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B1" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-    </row>
-    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" spans="1:13" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+    </row>
+    <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="4">
+        <v>13</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4">
+        <v>2</v>
+      </c>
+      <c r="G3" s="4">
+        <v>11</v>
+      </c>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="9"/>
+      <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="D4" s="4">
+        <v>6</v>
+      </c>
+      <c r="E4" s="4">
+        <v>2</v>
+      </c>
+      <c r="F4" s="4">
+        <v>2</v>
+      </c>
+      <c r="G4" s="4">
+        <v>2</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="9"/>
+      <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-    </row>
-    <row r="4" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="D5" s="4">
+        <v>5</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4">
+        <v>3</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="9"/>
+      <c r="C6" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="14" t="e">
-        <f t="shared" ref="G4:G13" si="0">SUM(E4/(D4/100))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H4" s="10" t="e">
-        <f>SUM(F4/(D4/100))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-    </row>
-    <row r="5" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="20"/>
-      <c r="C5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H5" s="10"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-    </row>
-    <row r="6" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="20"/>
-      <c r="C6" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H6" s="10"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-    </row>
-    <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="20"/>
+      <c r="G6" s="4"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+    </row>
+    <row r="7" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="9"/>
       <c r="C7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="9"/>
+      <c r="C8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="4">
+        <v>6</v>
+      </c>
+      <c r="E8" s="4">
+        <v>4</v>
+      </c>
+      <c r="F8" s="4">
+        <v>2</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="9"/>
+      <c r="C9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H7" s="10"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-    </row>
-    <row r="8" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="20"/>
-      <c r="C8" s="4" t="s">
+      <c r="D9" s="4">
+        <v>2</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4">
+        <v>2</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="9"/>
+      <c r="C10" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H8" s="10"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-    </row>
-    <row r="9" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="20"/>
-      <c r="C9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H9" s="10"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-    </row>
-    <row r="10" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="20"/>
-      <c r="C10" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H10" s="10"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-    </row>
-    <row r="11" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="20"/>
+      <c r="G10" s="4"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="9"/>
       <c r="C11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="D11" s="4">
+        <v>3</v>
+      </c>
       <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H11" s="10" t="e">
-        <f>SUM(F11/(D11/100))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-    </row>
-    <row r="12" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="20"/>
+      <c r="F11" s="4">
+        <v>3</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="10"/>
       <c r="C12" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H12" s="10"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-    </row>
-    <row r="13" spans="1:14" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="21"/>
-      <c r="C13" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H13" s="10"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-    </row>
-    <row r="14" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="5" t="s">
+      <c r="G12" s="4"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="12">
+        <f>SUM(E13:G13)</f>
+        <v>36</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="6">
+        <f>SUM(E3:E12)</f>
+        <v>7</v>
+      </c>
+      <c r="F13" s="6">
+        <f>SUM(F3:F12)</f>
         <v>15</v>
       </c>
-      <c r="C14" s="23">
-        <f>SUM(D4:D13)</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="6">
-        <f>SUM(E4:E13)</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="6">
-        <f>SUM(F4:F13)</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="11" t="e">
-        <f>SUM(SUM(E4:E13)/(C14/100))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H14" s="11" t="e">
-        <f>SUM((F4+F11)/(C14/100))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G13" s="6">
+        <f>SUM(G3:G12)</f>
+        <v>14</v>
+      </c>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-    </row>
-    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="15">
-        <v>1</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="18"/>
-    </row>
-    <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="15">
-        <v>2</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="18"/>
-    </row>
-    <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="15">
-        <v>3</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="18"/>
-    </row>
-    <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="15">
-        <v>4</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="18"/>
-    </row>
-    <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="15">
-        <v>5</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="18"/>
-    </row>
-    <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="15">
-        <v>6</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="18"/>
-    </row>
-    <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="15">
-        <v>7</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="18"/>
-    </row>
-    <row r="25" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="15">
-        <v>8</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="18"/>
-    </row>
-    <row r="26" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="15">
-        <v>9</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="18"/>
-    </row>
-    <row r="27" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="15">
-        <v>10</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="18"/>
-    </row>
-    <row r="28" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="15">
-        <v>11</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="18"/>
-    </row>
-    <row r="29" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="15">
-        <v>12</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" s="18"/>
-    </row>
-    <row r="30" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="15">
-        <v>13</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D30" s="18"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B4:B13"/>
+    <mergeCell ref="B3:B12"/>
     <mergeCell ref="B1:D1"/>
-    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C13:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
